--- a/02_ZEITPLAN/zeitplan_17.02.2020_v02.xlsx
+++ b/02_ZEITPLAN/zeitplan_17.02.2020_v02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josiah\Documents\IPA2020_JOSIAH_SCHIESS\02_ZEITPLAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D32FA54F-30B3-4FAA-8E72-FB4BF3686D3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71110344-4C23-4752-9774-E724711887EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25308" yWindow="444" windowWidth="25416" windowHeight="15972" xr2:uid="{74D2615D-1CED-415F-A807-8E49B652F1F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{74D2615D-1CED-415F-A807-8E49B652F1F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan final" sheetId="2" r:id="rId1"/>
@@ -4092,9 +4092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47C3C77-DD25-4E69-9FF0-12031AADE1AE}">
   <dimension ref="A1:AX81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4117,7 +4117,7 @@
     <col min="17" max="17" width="3.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="3.33203125" style="3" customWidth="1"/>
     <col min="20" max="20" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.44140625" style="3" customWidth="1"/>
     <col min="22" max="22" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
